--- a/SEM 3/EM - III/Miscellaneous/M3.xlsx
+++ b/SEM 3/EM - III/Miscellaneous/M3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abdurrahman Qureshi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Degree\SEM 3\EM - III\Miscellaneous\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DA0F46-3E10-457D-B6AB-CF0EBCD2493A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DC631C-3F49-47E4-9CEC-EDFF2D5F45DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -228,11 +228,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,7 +517,7 @@
   <dimension ref="A2:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,18 +535,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="H2" s="5" t="s">
+      <c r="F2" s="6"/>
+      <c r="H2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="5"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
@@ -578,10 +578,10 @@
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>30</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -598,10 +598,10 @@
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>31</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -656,18 +656,18 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="E11" s="5" t="s">
+      <c r="C11" s="6"/>
+      <c r="E11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="H11" s="5" t="s">
+      <c r="F11" s="6"/>
+      <c r="H11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="5"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
@@ -750,16 +750,16 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>28</v>
       </c>
     </row>

--- a/SEM 3/EM - III/Miscellaneous/M3.xlsx
+++ b/SEM 3/EM - III/Miscellaneous/M3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Degree\SEM 3\EM - III\Miscellaneous\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DC631C-3F49-47E4-9CEC-EDFF2D5F45DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20392620-B0A6-4BD6-9516-CF75426D409A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -517,7 +517,7 @@
   <dimension ref="A2:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,10 +555,10 @@
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H3" s="3" t="s">
